--- a/public/precios_template14_02_2025.xlsx
+++ b/public/precios_template14_02_2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7032F617-E4E5-412E-896E-B8A3E25408D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C231F210-70A6-489D-94C2-42AC32257D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Titulo</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>RTR 200 EFI 4V</t>
-  </si>
-  <si>
-    <t>TARPAN 200 RUN ER</t>
   </si>
   <si>
     <t>TK-REVOLT</t>
@@ -378,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,9 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -919,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:N72"/>
+  <dimension ref="A2:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,8 +942,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>77</v>
+      <c r="A3" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3248,7 +3242,7 @@
         <v>4912346</v>
       </c>
       <c r="D45" s="6" t="str">
-        <f t="shared" ref="D45:D60" si="1">IF(C45&lt;=K45,"Q1",IF(AND(C45&gt;K45,C45&lt;=L45),"Q2",IF(AND(C45&gt;L45,C45&lt;=M45),"Q3","Q4")))</f>
+        <f t="shared" ref="D45:D59" si="1">IF(C45&lt;=K45,"Q1",IF(AND(C45&gt;K45,C45&lt;=L45),"Q2",IF(AND(C45&gt;L45,C45&lt;=M45),"Q3","Q4")))</f>
         <v>Q1</v>
       </c>
       <c r="E45" s="7" cm="1">
@@ -3972,8 +3966,8 @@
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A58),"Sin Info")</f>
         <v>0</v>
       </c>
-      <c r="C58" s="15">
-        <v>582882</v>
+      <c r="C58" s="2">
+        <v>2370000</v>
       </c>
       <c r="D58" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4029,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <v>2370000</v>
+        <v>2900000</v>
       </c>
       <c r="D59" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4077,60 +4071,14 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="6">
-        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A60),"Sin Info")</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2900000</v>
-      </c>
-      <c r="D60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Q1</v>
-      </c>
-      <c r="E60" s="7" cm="1">
-        <f t="array" ref="E60">IFERROR(MIN(IF(Avisos!B:B=A60, Avisos!C:C)),"Sin Info")</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="7" cm="1">
-        <f t="array" ref="F60">IFERROR(MAX(IF(Avisos!B:B=A60, Avisos!C:C)),"Sin Info")</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="7" t="str">
-        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A60), 0), "Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="H60" s="7" t="str" cm="1">
-        <f t="array" ref="H60">IFERROR(ROUND(MODE(IF(Avisos!B:B=A60, Avisos!C:C)), 0),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="I60" s="7" t="str" cm="1">
-        <f t="array" ref="I60">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A60, Avisos!C:C)), 0),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="J60" s="8" t="str" cm="1">
-        <f t="array" ref="J60">IFERROR(SKEW(IF(Avisos!B:B=A60, Avisos!C:C)),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="K60" s="7" t="str" cm="1">
-        <f t="array" ref="K60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 0.25),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="L60" s="7" t="str" cm="1">
-        <f t="array" ref="L60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 0.5),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="M60" s="7" t="str" cm="1">
-        <f t="array" ref="M60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 0.75),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
-      <c r="N60" s="7" t="str" cm="1">
-        <f t="array" ref="N60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 1),"Sin Info")</f>
-        <v>Sin Info</v>
-      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E61" s="10"/>
@@ -4143,9 +4091,6 @@
       <c r="N61" s="10"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -4174,7 +4119,6 @@
       <c r="N65" s="10"/>
     </row>
     <row r="66" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="H66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
@@ -4210,14 +4154,8 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.35">
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D60">
+  <conditionalFormatting sqref="D5:D59">
     <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Q4"</formula>
     </cfRule>
@@ -4231,7 +4169,7 @@
       <formula>"Q1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J60">
+  <conditionalFormatting sqref="J5:J59">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
